--- a/esercizio 2.xlsx
+++ b/esercizio 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{11A4A24E-FE7F-4899-9312-D88F9F44E874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{40418C92-0BFF-4587-97A3-C6FE7712645A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
   </bookViews>
   <sheets>
     <sheet name="anagrafica_aziendale" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>CONCATENATE(LOWER(MID(B2,1,1)),".",LOWER(SUBSTITUTE(A2," ","")),"@",IF(C2="Verona","vr",""),IF(C2="Vicenza","vi",""),".","azienda.it")</f>
+        <f>CONCATENATE(LOWER(LEFT(B2,1)),".",LOWER(SUBSTITUTE(A2," ","")),"@",IF(C2="Verona","vr",""),IF(C2="Vicenza","vi",""),".","azienda.it")</f>
         <v>l.derossi@vr.azienda.it</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>CONCATENATE(LOWER(MID(B3,1,1)),".",LOWER(TRIM(A3)),"@",IF(C3="Verona","vr",""),IF(C3="Vicenza","vi",""),".","azienda.it")</f>
+        <f t="shared" ref="D3:D11" si="0">CONCATENATE(LOWER(LEFT(B3,1)),".",LOWER(SUBSTITUTE(A3," ","")),"@",IF(C3="Verona","vr",""),IF(C3="Vicenza","vi",""),".","azienda.it")</f>
         <v>f.rossi@vi.azienda.it</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D3:D11" si="0">CONCATENATE(LOWER(MID(B4,1,1)),".",LOWER(TRIM(A4)),"@",IF(C4="Verona","vr",""),IF(C4="Vicenza","vi",""),".","azienda.it")</f>
+        <f t="shared" si="0"/>
         <v>a.bianchi@vi.azienda.it</v>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>f.de rosa@vi.azienda.it</v>
+        <v>f.derosa@vi.azienda.it</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
